--- a/ssp_modeling/cost-benefits/cb_config_files/cb_config_params.xlsx
+++ b/ssp_modeling/cost-benefits/cb_config_files/cb_config_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/git/ssp_mexico/ssp_modeling/cost-benefits/cb_config_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4CC6D-22A8-8E42-8B07-20870EC14B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEAE13A-3FA6-D249-832A-CD0EF2A0F0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38560" yWindow="-5840" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33860" yWindow="-600" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tx_table" sheetId="1" r:id="rId1"/>
@@ -16417,11 +16417,11 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17232,14 +17232,15 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C22">
-        <v>-86</v>
+      <c r="C22" s="3">
+        <f>-86/3</f>
+        <v>-28.666666666666668</v>
       </c>
       <c r="D22" t="s">
         <v>591</v>
@@ -17270,14 +17271,15 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C23">
-        <v>-61</v>
+      <c r="C23" s="3">
+        <f>-61/3</f>
+        <v>-20.333333333333332</v>
       </c>
       <c r="D23" t="s">
         <v>591</v>
@@ -17308,14 +17310,15 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C24">
-        <v>-70</v>
+      <c r="C24" s="3">
+        <f>-70/3</f>
+        <v>-23.333333333333332</v>
       </c>
       <c r="D24" t="s">
         <v>591</v>
@@ -17346,14 +17349,15 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C25">
-        <v>-57</v>
+      <c r="C25" s="3">
+        <f>-57/3</f>
+        <v>-19</v>
       </c>
       <c r="D25" t="s">
         <v>591</v>
@@ -17384,14 +17388,15 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C26">
-        <v>-7</v>
+      <c r="C26" s="3">
+        <f>-7/3</f>
+        <v>-2.3333333333333335</v>
       </c>
       <c r="D26" t="s">
         <v>591</v>
@@ -17422,14 +17427,15 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C27">
-        <v>-72</v>
+      <c r="C27" s="3">
+        <f>-72/3</f>
+        <v>-24</v>
       </c>
       <c r="D27" t="s">
         <v>591</v>
@@ -17460,14 +17466,15 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C28">
-        <v>-3.04</v>
+      <c r="C28" s="3">
+        <f>-3.04/3</f>
+        <v>-1.0133333333333334</v>
       </c>
       <c r="D28" t="s">
         <v>592</v>
@@ -17498,14 +17505,15 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C29">
-        <v>-3.04</v>
+      <c r="C29" s="3">
+        <f>-3.04/3</f>
+        <v>-1.0133333333333334</v>
       </c>
       <c r="D29" t="s">
         <v>592</v>
@@ -17536,14 +17544,15 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C30">
-        <v>-0.64</v>
+      <c r="C30" s="3">
+        <f>-0.64/3</f>
+        <v>-0.21333333333333335</v>
       </c>
       <c r="D30" t="s">
         <v>592</v>
@@ -17574,14 +17583,15 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C31">
-        <v>-1.44</v>
+      <c r="C31" s="3">
+        <f>-1.44/3</f>
+        <v>-0.48</v>
       </c>
       <c r="D31" t="s">
         <v>592</v>
@@ -17612,14 +17622,15 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C32">
-        <v>-1.44</v>
+      <c r="C32" s="3">
+        <f>-1.44/3</f>
+        <v>-0.48</v>
       </c>
       <c r="D32" t="s">
         <v>592</v>
@@ -17650,14 +17661,15 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C33">
-        <v>-0.06</v>
+      <c r="C33" s="3">
+        <f>-0.06/3</f>
+        <v>-0.02</v>
       </c>
       <c r="D33" t="s">
         <v>592</v>
@@ -22527,7 +22539,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>

--- a/ssp_modeling/cost-benefits/cb_config_files/cb_config_params.xlsx
+++ b/ssp_modeling/cost-benefits/cb_config_files/cb_config_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/git/ssp_mexico/ssp_modeling/cost-benefits/cb_config_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEAE13A-3FA6-D249-832A-CD0EF2A0F0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B22CFD6-8403-6446-8AEC-6FA847864C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33860" yWindow="-600" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40960" yWindow="-5400" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tx_table" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
     <sheet name="attribute_dim_time_period" sheetId="16" r:id="rId16"/>
     <sheet name="attribute_transformation_code" sheetId="17" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cost_factors!$A$1:$L$160</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -6235,7 +6238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6245,6 +6248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6280,13 +6289,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16417,11 +16427,11 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17232,13 +17242,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <f>-86/3</f>
         <v>-28.666666666666668</v>
       </c>
@@ -17271,13 +17281,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f>-61/3</f>
         <v>-20.333333333333332</v>
       </c>
@@ -17310,13 +17320,13 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <f>-70/3</f>
         <v>-23.333333333333332</v>
       </c>
@@ -17349,13 +17359,13 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <f>-57/3</f>
         <v>-19</v>
       </c>
@@ -17388,13 +17398,13 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <f>-7/3</f>
         <v>-2.3333333333333335</v>
       </c>
@@ -17427,13 +17437,13 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <f>-72/3</f>
         <v>-24</v>
       </c>
@@ -17466,13 +17476,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <f>-3.04/3</f>
         <v>-1.0133333333333334</v>
       </c>
@@ -17505,13 +17515,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <f>-3.04/3</f>
         <v>-1.0133333333333334</v>
       </c>
@@ -17544,13 +17554,13 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <f>-0.64/3</f>
         <v>-0.21333333333333335</v>
       </c>
@@ -17583,13 +17593,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <f>-1.44/3</f>
         <v>-0.48</v>
       </c>
@@ -17622,13 +17632,13 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <f>-1.44/3</f>
         <v>-0.48</v>
       </c>
@@ -17661,13 +17671,13 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <f>-0.06/3</f>
         <v>-0.02</v>
       </c>
@@ -18574,14 +18584,15 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C57">
-        <v>-500</v>
+      <c r="C57" s="4">
+        <f>-500/3</f>
+        <v>-166.66666666666666</v>
       </c>
       <c r="D57" t="s">
         <v>595</v>
@@ -19373,14 +19384,15 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C78">
-        <v>-170</v>
+      <c r="C78" s="4">
+        <f>-170/3</f>
+        <v>-56.666666666666664</v>
       </c>
       <c r="D78" t="s">
         <v>591</v>
@@ -19411,14 +19423,15 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C79">
-        <v>-500</v>
+      <c r="C79" s="4">
+        <f>-500/3</f>
+        <v>-166.66666666666666</v>
       </c>
       <c r="D79" t="s">
         <v>599</v>
@@ -19449,14 +19462,15 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C80">
-        <v>-500</v>
+      <c r="C80" s="4">
+        <f>-500/3</f>
+        <v>-166.66666666666666</v>
       </c>
       <c r="D80" t="s">
         <v>599</v>
@@ -19829,14 +19843,15 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C90">
-        <v>-86</v>
+      <c r="C90" s="4">
+        <f>-86/3</f>
+        <v>-28.666666666666668</v>
       </c>
       <c r="D90" t="s">
         <v>591</v>
@@ -19867,14 +19882,15 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C91">
-        <v>-86</v>
+      <c r="C91" s="4">
+        <f>-86/3</f>
+        <v>-28.666666666666668</v>
       </c>
       <c r="D91" t="s">
         <v>591</v>
@@ -19905,14 +19921,15 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C92">
-        <v>-86</v>
+      <c r="C92" s="4">
+        <f>-86/3</f>
+        <v>-28.666666666666668</v>
       </c>
       <c r="D92" t="s">
         <v>591</v>
@@ -19943,14 +19960,15 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C93">
-        <v>-86</v>
+      <c r="C93" s="4">
+        <f>-86/3</f>
+        <v>-28.666666666666668</v>
       </c>
       <c r="D93" t="s">
         <v>591</v>
@@ -19981,14 +19999,15 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C94">
-        <v>-60.2</v>
+      <c r="C94" s="4">
+        <f>-60.2/3</f>
+        <v>-20.066666666666666</v>
       </c>
       <c r="D94" t="s">
         <v>591</v>
@@ -20019,14 +20038,15 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C95">
-        <v>-60.2</v>
+      <c r="C95" s="4">
+        <f>-60.2/3</f>
+        <v>-20.066666666666666</v>
       </c>
       <c r="D95" t="s">
         <v>591</v>
@@ -21425,14 +21445,15 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="A132" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C132">
-        <v>-500000</v>
+      <c r="C132" s="4">
+        <f>-500000/3</f>
+        <v>-166666.66666666666</v>
       </c>
       <c r="D132" t="s">
         <v>353</v>
@@ -22527,6 +22548,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L160" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="J80" r:id="rId1" location=":~:text=Using%20the%20World%20Bank%20numbers,case%20of%20U.S.%20LMOP%20landfills." xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>

--- a/ssp_modeling/cost-benefits/cb_config_files/cb_config_params.xlsx
+++ b/ssp_modeling/cost-benefits/cb_config_files/cb_config_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/git/ssp_mexico/ssp_modeling/cost-benefits/cb_config_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B22CFD6-8403-6446-8AEC-6FA847864C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266648D-8AF5-3642-B03F-728F27D38FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40960" yWindow="-5400" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-600" windowWidth="38400" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tx_table" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cost_factors!$A$1:$L$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">transformation_costs!$A$1:$O$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6238,7 +6239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6254,6 +6255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6289,7 +6296,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6297,6 +6304,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16427,7 +16435,7 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -21452,8 +21460,8 @@
         <v>558</v>
       </c>
       <c r="C132" s="4">
-        <f>-500000/3</f>
-        <v>-166666.66666666666</v>
+        <f>-500000/5</f>
+        <v>-100000</v>
       </c>
       <c r="D132" t="s">
         <v>353</v>
@@ -22560,12 +22568,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22580,6 +22588,7 @@
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="131.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -22864,97 +22873,97 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="I7">
-        <v>-83400</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="5">
+        <v>-8340</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>99</v>
       </c>
-      <c r="N7" t="b">
+      <c r="N7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="5" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>99</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="I8">
-        <v>10000000</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>99</v>
       </c>
-      <c r="N8" t="b">
+      <c r="N8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="5" t="s">
         <v>817</v>
       </c>
     </row>
@@ -23052,50 +23061,50 @@
         <v>819</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>99</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="I11">
-        <v>-422400000</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11" s="5">
+        <v>-42240000</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>99</v>
       </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>820</v>
       </c>
     </row>
@@ -23334,332 +23343,332 @@
         <v>825</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>99</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="I17">
-        <v>880000</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17" s="5">
+        <v>88000</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <v>99</v>
       </c>
-      <c r="N17" t="b">
+      <c r="N17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="5" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>99</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="I18">
-        <v>880000</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I18" s="5">
+        <v>88000</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" t="b">
+      <c r="N18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="5" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="I19">
-        <v>880000</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="5">
+        <v>88000</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="5">
         <v>0</v>
       </c>
-      <c r="N19" t="b">
+      <c r="N19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="5" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>99</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="I20">
-        <v>5560000</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="5">
+        <v>556000</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <v>99</v>
       </c>
-      <c r="N20" t="b">
+      <c r="N20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="5" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>463333.3333</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>0.88719309999999996</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <v>99</v>
       </c>
-      <c r="N21" t="b">
+      <c r="N21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="5" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>-83400</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <v>99</v>
       </c>
-      <c r="N22" t="b">
+      <c r="N22" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="5" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>99</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="I23">
-        <v>5560000</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" s="5">
+        <v>556000</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="5">
         <v>99</v>
       </c>
-      <c r="N23" t="b">
+      <c r="N23" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="5" t="s">
         <v>827</v>
       </c>
     </row>
@@ -24934,6 +24943,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O50" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
